--- a/biology/Biologie cellulaire et moléculaire/John_Gofman/John_Gofman.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/John_Gofman/John_Gofman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John William Gofman (21 septembre 1918 – 15 août 2007) est un scientifique américain. 
 Il fut professeur émérite de biologie cellulaire et moléculaire à l'université de Californie à Berkeley.
@@ -512,14 +524,16 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gofman est un pionnier dans le champ de la lipidologie clinique, et se voit honoré du titre de « Père de la lipidologie clinique » par le Journal of Clinical Lipidology en 2007[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gofman est un pionnier dans le champ de la lipidologie clinique, et se voit honoré du titre de « Père de la lipidologie clinique » par le Journal of Clinical Lipidology en 2007. 
 Avec Frank T. Lindgren et d'autres collaborateurs, Gofman découvre et décrit trois grandes classes de lipoprotéines, des molécules qui transportent le cholestérol dans le sang. L'équipe qu'il dirige au Donner Laboratory démontre ensuite le rôle des lipoprotéines dans l'induction de maladies cardiaques.
 Gofman joue un rôle central dans le domaine de la radioprotection, ses travaux ayant conduit la communauté scientifique à reconnaître les risques de cancer liés aux radiations ionisantes et à adopter le modèle linéaire sans seuil comme moyen d'estimer les risques de cancer dus aux faibles doses de radiation et comme fondement des normes internationales de radioprotection.
-Gofman mène ses premiers travaux de recherches en physique et chimie nucléaires, en lien étroit avec le Projet Manhattan. Il co-découvre plusieurs radio-isotopes, notamment l'uranium-233 et sa fissionnabilité ; il est la troisième personne de l'histoire à travailler avec du plutonium, et, ayant conçu l'un des premiers procédés permettant de séparer le plutonium des produits de fission à la demande de Robert Oppenheimer[2], le premier chimiste qui parvient à isoler des quantités de plutonium atteignant le milligramme[3].
+Gofman mène ses premiers travaux de recherches en physique et chimie nucléaires, en lien étroit avec le Projet Manhattan. Il co-découvre plusieurs radio-isotopes, notamment l'uranium-233 et sa fissionnabilité ; il est la troisième personne de l'histoire à travailler avec du plutonium, et, ayant conçu l'un des premiers procédés permettant de séparer le plutonium des produits de fission à la demande de Robert Oppenheimer, le premier chimiste qui parvient à isoler des quantités de plutonium atteignant le milligramme.
 En 1963, Gofman met en place la Division de Recherche Biomédicale du Livermore National Laboratory, au sein duquel il mène des recherches pionnières sur le lien entre cancer et anomalies chromosomiques.
-Plus tard, Gofman s'engage pour alerter sur les dangers de l'énergie nucléaire. À partir de 1971, il est président du Committee for Nuclear Responsibility. Il reçut le Right Livelihood Award (le prix Nobel alternatif) pour ses travaux sur les effets sanitaires de l'exposition des populations aux faibles doses de radiation dues à la catastrophe de Tchernobyl[4].
+Plus tard, Gofman s'engage pour alerter sur les dangers de l'énergie nucléaire. À partir de 1971, il est président du Committee for Nuclear Responsibility. Il reçut le Right Livelihood Award (le prix Nobel alternatif) pour ses travaux sur les effets sanitaires de l'exposition des populations aux faibles doses de radiation dues à la catastrophe de Tchernobyl.
 </t>
         </is>
       </c>
